--- a/inst/extdata/vignettes/encoding_example_01.xlsx
+++ b/inst/extdata/vignettes/encoding_example_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BFF6B-668E-8F4A-813E-6DF0D294350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FA68F-3913-D44E-A870-6001578CB55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1940" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="1300" yWindow="1840" windowWidth="31520" windowHeight="18700" activeTab="2" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="studies" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>country_name</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>crt:72-76:CVIET;dhfr:51_59_108_164:NCSI;dhps:436_437_540_581_613:AGEGT</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,7 +622,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -638,8 +644,11 @@
       <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -656,7 +665,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -673,7 +682,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -687,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -701,7 +710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -927,18 +936,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +963,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -972,7 +984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1142,7 +1154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
